--- a/lab_notebook/data/CPOM_Flux_Nutrient_Raw.xlsx
+++ b/lab_notebook/data/CPOM_Flux_Nutrient_Raw.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="80" windowWidth="18200" windowHeight="11820" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="80" windowWidth="23700" windowHeight="16500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="QC Report" sheetId="4" r:id="rId1"/>
